--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/tudo/tec/Project Outputs for teclado/Bill of Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E1922CAA-5D62-43B8-980B-3267669C9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4435978-E959-428C-A240-C2B51EE62B10}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D33F8A5C-19DA-4EEA-BBB1-805F3863999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D4469F9-9A25-42CE-80DF-D1BC9B3D3AD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -201,10 +201,10 @@
     <t>Teclas not fitted</t>
   </si>
   <si>
-    <t>31/10/2025</t>
-  </si>
-  <si>
-    <t>14:54</t>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>22:18</t>
   </si>
   <si>
     <t>Category</t>
@@ -216,6 +216,9 @@
     <t>Chip SMD Resistors</t>
   </si>
   <si>
+    <t>Card Edge Connectors</t>
+  </si>
+  <si>
     <t>Crystals</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t>LDO Voltage Regulators</t>
   </si>
   <si>
-    <t>Tactile Switches</t>
-  </si>
-  <si>
     <t>USB Connectors</t>
   </si>
   <si>
@@ -258,6 +258,9 @@
     <t>Murata</t>
   </si>
   <si>
+    <t>Sullins</t>
+  </si>
+  <si>
     <t>ECS International</t>
   </si>
   <si>
@@ -279,12 +282,12 @@
     <t>Richtek</t>
   </si>
   <si>
-    <t>Same Sky</t>
-  </si>
-  <si>
     <t>Global Connector Technology</t>
   </si>
   <si>
+    <t>Bourns</t>
+  </si>
+  <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
@@ -294,15 +297,18 @@
     <t>CC0603KRX7R7BB104</t>
   </si>
   <si>
-    <t>CL10C200JB8NNNC</t>
-  </si>
-  <si>
     <t>CRCW060310K0FKEA</t>
   </si>
   <si>
     <t>GRM033R60J223KE01D</t>
   </si>
   <si>
+    <t>CL05C330JB5NNNC</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D10-ST-BK</t>
+  </si>
+  <si>
     <t>ECS-80-20-5PXDU-TR</t>
   </si>
   <si>
@@ -330,15 +336,15 @@
     <t>RT9193-33GB</t>
   </si>
   <si>
-    <t>TS18-5-15-SL-160-SMT-TR</t>
-  </si>
-  <si>
     <t>USB4110-GF-A</t>
   </si>
   <si>
     <t>USBLC6-2SC6</t>
   </si>
   <si>
+    <t>CR0402AJ/-000GAS</t>
+  </si>
+  <si>
     <t>Case/Package</t>
   </si>
   <si>
@@ -360,15 +366,18 @@
     <t>16V 100nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>50V 20pF C0G ±5% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
     <t>100mW Thick Film Resistors ±1% ±100ppm/℃ 10kΩ 0603 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
     <t>0201 22 nF 6.3 V ±10% Tolerance X5R SMT Multilayer Ceramic Capacitor</t>
   </si>
   <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, C0G, 0+-30ppm/Celcius TC, 33pF, Surface Mount, 0402 inch</t>
+  </si>
+  <si>
+    <t>Conn Shrouded Header (4 Sides) HDR 20 POS 2.54mm Solder ST Top Entry Thru-Hole</t>
+  </si>
+  <si>
     <t>Crystal 8MHz ±30ppm (Tol) ±100ppm (Stability) 20pF FUND 60Ohm 2-Pin SMD T/R</t>
   </si>
   <si>
@@ -399,15 +408,15 @@
     <t>RT9193 Series 300 mA 3.3 V Ultra-Low Noise Ultra-Fast CMOS LDO Regulator-SC-70-5</t>
   </si>
   <si>
-    <t>Switch Tactile OFF (ON) SPST Round Button Gull Wing 0.05A 12VDC 80000Cycles 1.6N SMD T/R</t>
-  </si>
-  <si>
     <t>USB Connector, 16 Contact(s), Male, Right Angle, Surface Mount Terminal, Locking, Receptacle</t>
   </si>
   <si>
     <t>USBLC6 Series 2 Line 6 V Uni / Bi-Directional ESD Protection - SOT-23-6</t>
   </si>
   <si>
+    <t>Zero Ohm Resistor, Jumper, 0402 [1005 Metric], Thick Film, 63 mW, 1 A, Surface Mount Device</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -426,15 +435,18 @@
     <t>311-1088-1-ND</t>
   </si>
   <si>
-    <t>1276-1187-1-ND</t>
-  </si>
-  <si>
     <t>541-10.0KHCT-ND</t>
   </si>
   <si>
     <t>490-3169-1-ND</t>
   </si>
   <si>
+    <t>1276-1272-1-ND</t>
+  </si>
+  <si>
+    <t>S9172-ND</t>
+  </si>
+  <si>
     <t>XC1526CT-ND</t>
   </si>
   <si>
@@ -465,13 +477,13 @@
     <t>1028-1014-1-ND</t>
   </si>
   <si>
-    <t>2223-TS18-5-15-SL-160-SMT-TRCT-ND</t>
-  </si>
-  <si>
     <t>2073-USB4110-GF-A-1-ND</t>
   </si>
   <si>
     <t>497-5235-1-ND</t>
+  </si>
+  <si>
+    <t>CR0402AJ/-000GASCT-ND</t>
   </si>
   <si>
     <t>Supplier Order Qty 1</t>
@@ -1501,8 +1513,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="26" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1953,10 +1965,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2121,11 +2133,11 @@
       </c>
       <c r="D8" s="93">
         <f ca="1">TODAY()</f>
-        <v>45961</v>
+        <v>45988</v>
       </c>
       <c r="E8" s="94">
         <f ca="1">NOW()</f>
-        <v>45961.622015162036</v>
+        <v>45988.932773379631</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2146,43 +2158,43 @@
         <v>69</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="23">
-        <f t="shared" ref="B10:B27" si="0">ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B28" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2192,28 +2204,28 @@
         <v>70</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="24">
         <v>603</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="24">
         <v>2</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K10" s="34">
         <v>10</v>
       </c>
       <c r="L10" s="34">
-        <v>3977350</v>
+        <v>3746864</v>
       </c>
       <c r="M10" s="70">
         <v>5.0000000000000001E-3</v>
@@ -2238,28 +2250,28 @@
         <v>71</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="26">
         <v>603</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K11" s="35">
         <v>10</v>
       </c>
       <c r="L11" s="35">
-        <v>6063458</v>
+        <v>5852215</v>
       </c>
       <c r="M11" s="71">
         <v>6.0000000000000001E-3</v>
@@ -2278,40 +2290,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="24">
         <v>603</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K12" s="34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L12" s="34">
-        <v>117173</v>
+        <v>3292636</v>
       </c>
       <c r="M12" s="70">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N12" s="70">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O12" s="56" t="s">
         <v>42</v>
@@ -2324,40 +2336,40 @@
         <v>4</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="26">
-        <v>603</v>
+        <v>201</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L13" s="35">
-        <v>1751008</v>
+        <v>1612421</v>
       </c>
       <c r="M13" s="71">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="N13" s="71">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O13" s="57" t="s">
         <v>42</v>
@@ -2373,37 +2385,37 @@
         <v>58</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="24">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K14" s="34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L14" s="34">
-        <v>1644231</v>
+        <v>3173526</v>
       </c>
       <c r="M14" s="70">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N14" s="70">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="O14" s="56" t="s">
         <v>42</v>
@@ -2422,32 +2434,32 @@
         <v>74</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H15" s="26">
         <v>1</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K15" s="35">
         <v>1</v>
       </c>
       <c r="L15" s="35">
-        <v>9659</v>
+        <v>30038</v>
       </c>
       <c r="M15" s="71">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="N15" s="71">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="O15" s="57" t="s">
         <v>42</v>
@@ -2466,32 +2478,32 @@
         <v>75</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H16" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K16" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L16" s="34">
-        <v>965324</v>
+        <v>4143</v>
       </c>
       <c r="M16" s="70">
-        <v>6.0999999999999999E-2</v>
+        <v>0.44</v>
       </c>
       <c r="N16" s="70">
-        <v>0.91500000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="O16" s="56" t="s">
         <v>42</v>
@@ -2504,40 +2516,38 @@
         <v>8</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="26">
-        <v>705</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K17" s="35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L17" s="35">
-        <v>759</v>
+        <v>1060154</v>
       </c>
       <c r="M17" s="71">
-        <v>1.42</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="N17" s="71">
-        <v>1.42</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="O17" s="57" t="s">
         <v>42</v>
@@ -2550,40 +2560,40 @@
         <v>9</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="24">
-        <v>402</v>
+        <v>705</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="24">
         <v>1</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K18" s="34">
         <v>1</v>
       </c>
       <c r="L18" s="34">
-        <v>236858</v>
+        <v>509</v>
       </c>
       <c r="M18" s="70">
-        <v>0.28999999999999998</v>
+        <v>1.42</v>
       </c>
       <c r="N18" s="70">
-        <v>0.28999999999999998</v>
+        <v>1.42</v>
       </c>
       <c r="O18" s="56" t="s">
         <v>42</v>
@@ -2601,33 +2611,35 @@
       <c r="D19" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="26">
-        <v>4958</v>
-      </c>
-      <c r="F19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="26">
+        <v>402</v>
+      </c>
       <c r="G19" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H19" s="26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K19" s="35">
         <v>1</v>
       </c>
       <c r="L19" s="35">
-        <v>72</v>
+        <v>236143</v>
       </c>
       <c r="M19" s="71">
-        <v>4.95</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N19" s="71">
-        <v>4.95</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O19" s="57" t="s">
         <v>42</v>
@@ -2645,35 +2657,33 @@
       <c r="D20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="E20" s="24">
+        <v>4958</v>
+      </c>
+      <c r="F20" s="24"/>
       <c r="G20" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="34">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L20" s="34">
-        <v>4432</v>
+        <v>80</v>
       </c>
       <c r="M20" s="70">
-        <v>6.08</v>
-      </c>
-      <c r="N20" s="106">
-        <v>6.08</v>
+        <v>4.95</v>
+      </c>
+      <c r="N20" s="70">
+        <v>4.95</v>
       </c>
       <c r="O20" s="56" t="s">
         <v>42</v>
@@ -2686,40 +2696,40 @@
         <v>12</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="26">
-        <v>603</v>
+        <v>95</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H21" s="26">
         <v>1</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K21" s="35">
         <v>1</v>
       </c>
       <c r="L21" s="35">
-        <v>1166250</v>
+        <v>3958</v>
       </c>
       <c r="M21" s="71">
-        <v>0.08</v>
-      </c>
-      <c r="N21" s="71">
-        <v>0.08</v>
+        <v>6.08</v>
+      </c>
+      <c r="N21" s="106">
+        <v>6.08</v>
       </c>
       <c r="O21" s="57" t="s">
         <v>42</v>
@@ -2732,40 +2742,40 @@
         <v>13</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="24">
         <v>603</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H22" s="24">
         <v>1</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K22" s="34">
         <v>1</v>
       </c>
       <c r="L22" s="34">
-        <v>265771</v>
+        <v>926928</v>
       </c>
       <c r="M22" s="70">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N22" s="70">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="O22" s="56" t="s">
         <v>42</v>
@@ -2781,37 +2791,37 @@
         <v>59</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="26">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K23" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="35">
-        <v>5389</v>
+        <v>167439</v>
       </c>
       <c r="M23" s="71">
         <v>0.1</v>
       </c>
       <c r="N23" s="71">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="57" t="s">
         <v>42</v>
@@ -2824,40 +2834,40 @@
         <v>15</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="F24" s="24">
+        <v>402</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H24" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K24" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="34">
-        <v>18961</v>
+        <v>540</v>
       </c>
       <c r="M24" s="70">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="N24" s="70">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="56" t="s">
         <v>42</v>
@@ -2876,32 +2886,34 @@
         <v>81</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="G25" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="26">
         <v>1</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="35">
         <v>1</v>
       </c>
       <c r="L25" s="35">
-        <v>1211</v>
+        <v>17527</v>
       </c>
       <c r="M25" s="71">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="N25" s="71">
-        <v>0.19</v>
+        <v>0.41</v>
       </c>
       <c r="O25" s="57" t="s">
         <v>42</v>
@@ -2920,26 +2932,26 @@
         <v>82</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H26" s="24">
         <v>1</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K26" s="34">
         <v>1</v>
       </c>
       <c r="L26" s="34">
-        <v>20026</v>
+        <v>27334</v>
       </c>
       <c r="M26" s="70">
         <v>1.24</v>
@@ -2961,31 +2973,31 @@
         <v>68</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H27" s="26">
         <v>1</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K27" s="35">
         <v>1</v>
       </c>
       <c r="L27" s="35">
-        <v>94406</v>
+        <v>64082</v>
       </c>
       <c r="M27" s="71">
         <v>0.36</v>
@@ -2997,74 +3009,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="41"/>
-      <c r="H28" s="40">
-        <f>SUM(H10:H27)</f>
-        <v>56</v>
-      </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="40">
-        <f>SUM(K10:K27)</f>
-        <v>61</v>
-      </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39">
-        <f>SUM(N10:N27)</f>
-        <v>17.384999999999998</v>
-      </c>
-      <c r="O28" s="58"/>
-    </row>
-    <row r="29" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="34">
+        <v>2</v>
+      </c>
+      <c r="L28" s="34">
+        <v>158716</v>
+      </c>
+      <c r="M28" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="N28" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="41"/>
+      <c r="H29" s="40">
+        <f>SUM(H10:H28)</f>
+        <v>64</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="40">
+        <f>SUM(K10:K28)</f>
+        <v>85</v>
+      </c>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39">
+        <f>SUM(N10:N28)</f>
+        <v>17.634999999999998</v>
+      </c>
+      <c r="O29" s="58"/>
+    </row>
+    <row r="30" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="43" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="67"/>
-      <c r="O29" s="55"/>
-    </row>
-    <row r="30" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="101">
-        <f>N28</f>
-        <v>17.384999999999998</v>
-      </c>
-      <c r="M30" s="102"/>
-      <c r="N30" s="80" t="s">
-        <v>42</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="67"/>
       <c r="O30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3072,25 +3101,28 @@
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="103">
-        <f>L30/H30</f>
-        <v>17.384999999999998</v>
-      </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="81" t="s">
+      <c r="H31" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="101">
+        <f>N29</f>
+        <v>17.634999999999998</v>
+      </c>
+      <c r="M31" s="102"/>
+      <c r="N31" s="80" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="55"/>
     </row>
-    <row r="32" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
-      <c r="B32" s="86"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
@@ -3098,42 +3130,61 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="42" t="s">
+        <v>26</v>
+      </c>
       <c r="K32" s="6"/>
-      <c r="O32" s="75"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="85" t="s">
+      <c r="L32" s="103">
+        <f>L31/H31</f>
+        <v>17.634999999999998</v>
+      </c>
+      <c r="M32" s="103"/>
+      <c r="N32" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="55"/>
+    </row>
+    <row r="33" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="O33" s="75"/>
+    </row>
+    <row r="34" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I34" s="72">
         <v>5.43</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J34" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="104">
-        <f>L30*I33</f>
-        <v>94.400549999999981</v>
-      </c>
-      <c r="M33" s="105"/>
-      <c r="N33" s="74" t="s">
+      <c r="K34" s="73"/>
+      <c r="L34" s="104">
+        <f>L31*I34</f>
+        <v>95.758049999999983</v>
+      </c>
+      <c r="M34" s="105"/>
+      <c r="N34" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="76"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
@@ -3146,25 +3197,30 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="90"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I38" s="77"/>
+      <c r="D38" s="90"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I39" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="L10:L27">
+  <conditionalFormatting sqref="L10:L28">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N27">
+  <conditionalFormatting sqref="N10:N28">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>

--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D33F8A5C-19DA-4EEA-BBB1-805F3863999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D4469F9-9A25-42CE-80DF-D1BC9B3D3AD6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BBF1D3D6-5699-445A-8C6C-EB60023B047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2874D464-C626-44CA-8126-6AF0B59FE1D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -201,10 +201,10 @@
     <t>Teclas not fitted</t>
   </si>
   <si>
-    <t>27/11/2025</t>
-  </si>
-  <si>
-    <t>22:18</t>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
   <si>
     <t>Category</t>
@@ -279,6 +279,9 @@
     <t>Taiyo Yuden</t>
   </si>
   <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
     <t>Richtek</t>
   </si>
   <si>
@@ -315,9 +318,6 @@
     <t>1N4148WX-TP</t>
   </si>
   <si>
-    <t>M55342K06B1E50RS3</t>
-  </si>
-  <si>
     <t>ERB-RD0R50X</t>
   </si>
   <si>
@@ -327,12 +327,12 @@
     <t>LMK107BBJ106MALT</t>
   </si>
   <si>
+    <t>RK73H1ETTP5101F</t>
+  </si>
+  <si>
     <t>ERJ-3EKF1004V</t>
   </si>
   <si>
-    <t>ERA-2AEB512X</t>
-  </si>
-  <si>
     <t>RT9193-33GB</t>
   </si>
   <si>
@@ -384,9 +384,6 @@
     <t>Diode, Rectifier, Fast, Vr 100V, If 300MA, Pkg SOD-323, Vf 1V, Trr 4NS, Cj 4PF, Tj +150C</t>
   </si>
   <si>
-    <t>Fixed Resistor, Metal Glaze/thick Film, 0.15W, 1500ohm, 50V, 1% +/-Tol, 100ppm/Cel, Surface Mount, 0705</t>
-  </si>
-  <si>
     <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0402 1 X 0.5 X 0.39mm T/R UL/cUL</t>
   </si>
   <si>
@@ -399,12 +396,12 @@
     <t>Multilayer Ceramic Capacitors (High dielectric type), 10V, 10 uF, ± 20 %, 0603, X5R, RoHS</t>
   </si>
   <si>
+    <t>Res Thick Film 0402 5.1K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+  </si>
+  <si>
     <t>Res Thick Film 0603 1M Ohm 1% 1/10W ±100ppm/°C Molded SMD Punched Carrier T/R</t>
   </si>
   <si>
-    <t>Res Thin Film 0402 5.1K Ohm 0.1% 0.063W ±25ppm/°C Molded SMD Punched Carrier T/R</t>
-  </si>
-  <si>
     <t>RT9193 Series 300 mA 3.3 V Ultra-Low Noise Ultra-Fast CMOS LDO Regulator-SC-70-5</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>1N4148WXTPMSCT-ND</t>
   </si>
   <si>
-    <t>541-M55342K06B1E50RS3CT-ND</t>
-  </si>
-  <si>
     <t>P15122CT-ND</t>
   </si>
   <si>
@@ -468,10 +462,10 @@
     <t>587-3258-1-ND</t>
   </si>
   <si>
+    <t>2019-RK73H1ETTP5101FCT-ND</t>
+  </si>
+  <si>
     <t>P1.00MHCT-ND</t>
-  </si>
-  <si>
-    <t>P5.1KDCCT-ND</t>
   </si>
   <si>
     <t>1028-1014-1-ND</t>
@@ -509,7 +503,7 @@
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -670,13 +664,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1208,7 +1195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1512,9 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1965,10 +1949,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2133,11 +2117,11 @@
       </c>
       <c r="D8" s="93">
         <f ca="1">TODAY()</f>
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="E8" s="94">
         <f ca="1">NOW()</f>
-        <v>45988.932773379631</v>
+        <v>45989.418043981481</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2158,7 +2142,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>103</v>
@@ -2167,34 +2151,34 @@
         <v>107</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>128</v>
-      </c>
       <c r="J9" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="N9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="O9" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="23">
-        <f t="shared" ref="B10:B28" si="0">ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B27" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -2204,7 +2188,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="24">
         <v>603</v>
@@ -2216,10 +2200,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="34">
         <v>10</v>
@@ -2250,7 +2234,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="26">
         <v>603</v>
@@ -2262,10 +2246,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="35">
         <v>10</v>
@@ -2296,7 +2280,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="24">
         <v>603</v>
@@ -2308,10 +2292,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K12" s="34">
         <v>10</v>
@@ -2342,7 +2326,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="26">
         <v>201</v>
@@ -2354,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="35">
         <v>1</v>
@@ -2388,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="24">
         <v>402</v>
@@ -2400,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" s="34">
         <v>10</v>
@@ -2434,7 +2418,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="26" t="s">
@@ -2444,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="35">
         <v>1</v>
@@ -2478,7 +2462,7 @@
         <v>75</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24" t="s">
@@ -2488,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="34">
         <v>1</v>
@@ -2522,7 +2506,7 @@
         <v>76</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26" t="s">
@@ -2532,10 +2516,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K17" s="35">
         <v>15</v>
@@ -2560,16 +2544,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="24">
-        <v>705</v>
+        <v>402</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>116</v>
@@ -2578,22 +2562,22 @@
         <v>1</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="34">
         <v>1</v>
       </c>
       <c r="L18" s="34">
-        <v>509</v>
+        <v>236143</v>
       </c>
       <c r="M18" s="70">
-        <v>1.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N18" s="70">
-        <v>1.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O18" s="56" t="s">
         <v>42</v>
@@ -2606,40 +2590,38 @@
         <v>10</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="26">
-        <v>402</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E19" s="26">
+        <v>4958</v>
+      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="26" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="26">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" s="35">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L19" s="35">
-        <v>236143</v>
+        <v>80</v>
       </c>
       <c r="M19" s="71">
-        <v>0.28999999999999998</v>
+        <v>4.95</v>
       </c>
       <c r="N19" s="71">
-        <v>0.28999999999999998</v>
+        <v>4.95</v>
       </c>
       <c r="O19" s="57" t="s">
         <v>42</v>
@@ -2652,38 +2634,40 @@
         <v>11</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="24">
-        <v>4958</v>
-      </c>
-      <c r="F20" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="G20" s="24" t="s">
         <v>118</v>
       </c>
       <c r="H20" s="24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L20" s="34">
-        <v>80</v>
+        <v>3958</v>
       </c>
       <c r="M20" s="70">
-        <v>4.95</v>
+        <v>6.08</v>
       </c>
       <c r="N20" s="70">
-        <v>4.95</v>
+        <v>6.08</v>
       </c>
       <c r="O20" s="56" t="s">
         <v>42</v>
@@ -2696,16 +2680,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="F21" s="26">
+        <v>603</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>119</v>
@@ -2714,22 +2698,22 @@
         <v>1</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="35">
         <v>1</v>
       </c>
       <c r="L21" s="35">
-        <v>3958</v>
+        <v>926928</v>
       </c>
       <c r="M21" s="71">
-        <v>6.08</v>
-      </c>
-      <c r="N21" s="106">
-        <v>6.08</v>
+        <v>0.08</v>
+      </c>
+      <c r="N21" s="71">
+        <v>0.08</v>
       </c>
       <c r="O21" s="57" t="s">
         <v>42</v>
@@ -2742,40 +2726,40 @@
         <v>13</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="24">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K22" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="34">
-        <v>926928</v>
+        <v>145862</v>
       </c>
       <c r="M22" s="70">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N22" s="70">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="56" t="s">
         <v>42</v>
@@ -2794,7 +2778,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23" s="26">
         <v>603</v>
@@ -2806,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" s="35">
         <v>1</v>
@@ -2834,40 +2818,40 @@
         <v>15</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="24">
-        <v>402</v>
+        <v>99</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>122</v>
       </c>
       <c r="H24" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K24" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="34">
-        <v>540</v>
+        <v>17527</v>
       </c>
       <c r="M24" s="70">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="N24" s="70">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="O24" s="56" t="s">
         <v>42</v>
@@ -2880,17 +2864,15 @@
         <v>16</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>105</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F25" s="26"/>
       <c r="G25" s="26" t="s">
         <v>123</v>
       </c>
@@ -2898,22 +2880,22 @@
         <v>1</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K25" s="35">
         <v>1</v>
       </c>
       <c r="L25" s="35">
-        <v>17527</v>
+        <v>27334</v>
       </c>
       <c r="M25" s="71">
-        <v>0.41</v>
+        <v>1.24</v>
       </c>
       <c r="N25" s="71">
-        <v>0.41</v>
+        <v>1.24</v>
       </c>
       <c r="O25" s="57" t="s">
         <v>42</v>
@@ -2926,15 +2908,17 @@
         <v>17</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>101</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="G26" s="24" t="s">
         <v>124</v>
       </c>
@@ -2942,22 +2926,22 @@
         <v>1</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K26" s="34">
         <v>1</v>
       </c>
       <c r="L26" s="34">
-        <v>27334</v>
+        <v>64082</v>
       </c>
       <c r="M26" s="70">
-        <v>1.24</v>
+        <v>0.36</v>
       </c>
       <c r="N26" s="70">
-        <v>1.24</v>
+        <v>0.36</v>
       </c>
       <c r="O26" s="56" t="s">
         <v>42</v>
@@ -2970,130 +2954,111 @@
         <v>18</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>106</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F27" s="26"/>
       <c r="G27" s="26" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="35">
-        <v>64082</v>
+        <v>158716</v>
       </c>
       <c r="M27" s="71">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="71">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="O27" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
-      <c r="B28" s="23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="24">
-        <v>2</v>
-      </c>
-      <c r="I28" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="34">
-        <v>2</v>
-      </c>
-      <c r="L28" s="34">
-        <v>158716</v>
-      </c>
-      <c r="M28" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="N28" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="O28" s="56" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="41"/>
+      <c r="H28" s="40">
+        <f>SUM(H10:H27)</f>
+        <v>63</v>
+      </c>
+      <c r="J28" s="36"/>
+      <c r="K28" s="40">
+        <f>SUM(K10:K27)</f>
+        <v>84</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39">
+        <f>SUM(N10:N27)</f>
+        <v>16.215</v>
+      </c>
+      <c r="O28" s="58"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="67"/>
+      <c r="O29" s="55"/>
+    </row>
+    <row r="30" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="101">
+        <f>N28</f>
+        <v>16.215</v>
+      </c>
+      <c r="M30" s="102"/>
+      <c r="N30" s="80" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="41"/>
-      <c r="H29" s="40">
-        <f>SUM(H10:H28)</f>
-        <v>64</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="40">
-        <f>SUM(K10:K28)</f>
-        <v>85</v>
-      </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39">
-        <f>SUM(N10:N28)</f>
-        <v>17.634999999999998</v>
-      </c>
-      <c r="O29" s="58"/>
-    </row>
-    <row r="30" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="67"/>
       <c r="O30" s="55"/>
     </row>
-    <row r="31" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3101,28 +3066,25 @@
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="101">
-        <f>N29</f>
-        <v>17.634999999999998</v>
-      </c>
-      <c r="M31" s="102"/>
-      <c r="N31" s="80" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="103">
+        <f>L30/H30</f>
+        <v>16.215</v>
+      </c>
+      <c r="M31" s="103"/>
+      <c r="N31" s="81" t="s">
         <v>42</v>
       </c>
       <c r="O31" s="55"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
@@ -3130,61 +3092,42 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="J32" s="5"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="103">
-        <f>L31/H31</f>
-        <v>17.634999999999998</v>
-      </c>
-      <c r="M32" s="103"/>
-      <c r="N32" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="55"/>
-    </row>
-    <row r="33" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="O33" s="75"/>
-    </row>
-    <row r="34" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="85" t="s">
+      <c r="O32" s="75"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="89"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I33" s="72">
         <v>5.43</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J33" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="104">
-        <f>L31*I34</f>
-        <v>95.758049999999983</v>
-      </c>
-      <c r="M34" s="105"/>
-      <c r="N34" s="74" t="s">
+      <c r="K33" s="73"/>
+      <c r="L33" s="104">
+        <f>L30*I33</f>
+        <v>88.047449999999998</v>
+      </c>
+      <c r="M33" s="105"/>
+      <c r="N33" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="76"/>
+      <c r="O33" s="76"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
@@ -3197,30 +3140,25 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="90"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D38" s="90"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I39" s="77"/>
+      <c r="I38" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L33:M33"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="L10:L28">
+  <conditionalFormatting sqref="L10:L27">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N28">
+  <conditionalFormatting sqref="N10:N27">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>

--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED4CDE9-CD68-4C78-A59E-A3F54E7E9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8914532-7DD3-4A81-A60F-0A86A0A92268}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{904067F2-9376-4794-A359-95377ED8565D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB52BDB4-E166-468B-86BA-56C00564DC21}"/>
   </bookViews>
   <sheets>
     <sheet name="Teclas not fitted" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
   <si>
     <t>Line #</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Supplier Part Number</t>
   </si>
   <si>
@@ -155,31 +152,28 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>0201 22 nF 6.3 V ±10% Tolerance X5R SMT Multilayer Ceramic Capacitor</t>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, C0G, 0+-30ppm/Celcius TC, 33pF, Surface Mount, 0402 inch</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
+  </si>
+  <si>
+    <t>CL05C330JB5NNNC</t>
+  </si>
+  <si>
+    <t>1276-1272-1-ND</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, +-15% TC, 22nF, Surface Mount, 0603 inch</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>GRM033R60J223KE01D</t>
-  </si>
-  <si>
-    <t>490-3169-1-ND</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, C0G, 0+-30ppm/Celcius TC, 33pF, Surface Mount, 0402 inch</t>
-  </si>
-  <si>
-    <t>C6, C7</t>
-  </si>
-  <si>
-    <t>CL05C330JB5NNNC</t>
-  </si>
-  <si>
-    <t>1276-1272-1-ND</t>
+    <t>CL10B223KB8WPNC</t>
+  </si>
+  <si>
+    <t>1276-6534-1-ND</t>
   </si>
   <si>
     <t>Conn Shrouded Header (4 Sides) HDR 20 POS 2.54mm Solder ST Top Entry Thru-Hole</t>
@@ -396,6 +390,9 @@
   </si>
   <si>
     <t>Bourns</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -791,10 +788,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065653DF-340F-41C2-AD99-D2269C33E539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5609FB-C1DE-4AA0-B2C9-0AC700EABD9D}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -831,66 +830,66 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>0.01</v>
@@ -899,28 +898,28 @@
         <v>3746544</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q2" s="1">
         <v>5.0000000000000001E-3</v>
@@ -931,52 +930,52 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>5839005</v>
+        <v>5838018</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="Q3" s="1">
         <v>6.0000000000000001E-3</v>
@@ -987,52 +986,52 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G4" s="1">
         <v>0.24</v>
       </c>
       <c r="H4" s="1">
-        <v>3294276</v>
+        <v>3238174</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="Q4" s="1">
         <v>0.03</v>
@@ -1043,132 +1042,130 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" s="1">
-        <v>0.1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>1612421</v>
+        <v>3172986</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="Q5" s="1">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R5" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="1">
-        <v>3172986</v>
+        <v>843417</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="R6" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G7" s="1">
         <v>0.41</v>
@@ -1177,28 +1174,28 @@
         <v>30037</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="1">
         <v>0.41</v>
@@ -1209,22 +1206,22 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G8" s="1">
         <v>0.44</v>
@@ -1233,28 +1230,28 @@
         <v>4142</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1">
         <v>0.44</v>
@@ -1265,22 +1262,22 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1">
         <v>0.91500000000000004</v>
@@ -1289,28 +1286,28 @@
         <v>1059989</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1">
         <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="1">
         <v>6.0999999999999999E-2</v>
@@ -1321,22 +1318,22 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G10" s="1">
         <v>0.28999999999999998</v>
@@ -1345,28 +1342,28 @@
         <v>236143</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="1">
         <v>0.28999999999999998</v>
@@ -1377,52 +1374,52 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1">
         <v>74.25</v>
       </c>
       <c r="H11" s="1">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="1">
         <v>4.95</v>
@@ -1434,19 +1431,19 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="G12" s="1">
         <v>6.08</v>
@@ -1455,28 +1452,28 @@
         <v>3958</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="1">
         <v>6.08</v>
@@ -1487,22 +1484,22 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G13" s="1">
         <v>0.08</v>
@@ -1511,28 +1508,28 @@
         <v>926448</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="1">
         <v>0.08</v>
@@ -1543,22 +1540,22 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="1">
         <v>0.2</v>
@@ -1567,28 +1564,28 @@
         <v>142982</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="1">
         <v>0.1</v>
@@ -1599,22 +1596,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>0.1</v>
@@ -1623,28 +1620,28 @@
         <v>157239</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="1">
         <v>0.1</v>
@@ -1656,19 +1653,19 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1677,28 +1674,28 @@
         <v>105630</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P16" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="1">
         <v>0.1</v>
@@ -1709,22 +1706,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G17" s="1">
         <v>0.41</v>
@@ -1733,28 +1730,28 @@
         <v>17489</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="1">
         <v>0.41</v>
@@ -1765,22 +1762,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G18" s="1">
         <v>1.24</v>
@@ -1789,28 +1786,28 @@
         <v>27309</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P18" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1">
         <v>1.24</v>
@@ -1821,22 +1818,22 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G19" s="1">
         <v>0.36</v>
@@ -1845,28 +1842,28 @@
         <v>63702</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P19" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="1">
         <v>0.36</v>
@@ -1877,22 +1874,22 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1">
         <v>0.2</v>
@@ -1901,28 +1898,28 @@
         <v>158716</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="1">
         <v>0.1</v>

--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8914532-7DD3-4A81-A60F-0A86A0A92268}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE298CEB-8687-4DB9-9EA8-D370B24CAF56}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB52BDB4-E166-468B-86BA-56C00564DC21}"/>
   </bookViews>
@@ -470,6 +470,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,7 +796,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1387,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>

--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE298CEB-8687-4DB9-9EA8-D370B24CAF56}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB1D9E0-8D24-4E9E-ADF8-AA8F37729BCA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB52BDB4-E166-468B-86BA-56C00564DC21}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
   <si>
     <t>Line #</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>ERBRD0R50X</t>
   </si>
   <si>
     <t>P15122CT-ND</t>
@@ -477,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5609FB-C1DE-4AA0-B2C9-0AC700EABD9D}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1057,9 +1054,7 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1111,9 +1106,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1165,9 +1158,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1221,9 +1212,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1277,9 +1266,7 @@
       <c r="D9" s="1">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>59</v>
       </c>
@@ -1333,11 +1320,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>0.28999999999999998</v>
@@ -1355,10 +1340,10 @@
         <v>23</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>25</v>
@@ -1367,7 +1352,7 @@
         <v>26</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="1">
         <v>0.28999999999999998</v>
@@ -1381,19 +1366,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G11" s="1">
         <v>74.25</v>
@@ -1402,7 +1385,7 @@
         <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1">
         <v>15</v>
@@ -1411,19 +1394,19 @@
         <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="1">
         <v>4.95</v>
@@ -1435,19 +1418,17 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G12" s="1">
         <v>6.08</v>
@@ -1465,10 +1446,10 @@
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>25</v>
@@ -1477,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="1">
         <v>6.08</v>
@@ -1491,19 +1472,17 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G13" s="1">
         <v>0.08</v>
@@ -1521,10 +1500,10 @@
         <v>23</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>25</v>
@@ -1533,7 +1512,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="1">
         <v>0.08</v>
@@ -1547,19 +1526,17 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="1">
         <v>0.2</v>
@@ -1577,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>25</v>
@@ -1589,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="1">
         <v>0.1</v>
@@ -1603,19 +1580,17 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="1">
         <v>0.1</v>
@@ -1633,10 +1608,10 @@
         <v>23</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>25</v>
@@ -1645,7 +1620,7 @@
         <v>26</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="1">
         <v>0.1</v>
@@ -1657,19 +1632,17 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G16" s="1">
         <v>0.1</v>
@@ -1687,10 +1660,10 @@
         <v>23</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
@@ -1699,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="1">
         <v>0.1</v>
@@ -1713,19 +1686,17 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G17" s="1">
         <v>0.41</v>
@@ -1743,19 +1714,19 @@
         <v>23</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="1">
         <v>0.41</v>
@@ -1769,19 +1740,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G18" s="1">
         <v>1.24</v>
@@ -1799,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -1811,7 +1780,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="1">
         <v>1.24</v>
@@ -1825,19 +1794,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G19" s="1">
         <v>0.36</v>
@@ -1855,10 +1822,10 @@
         <v>23</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>25</v>
@@ -1867,7 +1834,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="1">
         <v>0.36</v>
@@ -1881,19 +1848,17 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="G20" s="1">
         <v>0.2</v>
@@ -1911,10 +1876,10 @@
         <v>23</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>25</v>
@@ -1923,7 +1888,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="1">
         <v>0.1</v>

--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{573C0CBF-9D4B-45BB-8EAE-03F8FD43D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB1D9E0-8D24-4E9E-ADF8-AA8F37729BCA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{FB4DB57C-66EA-456A-9134-FA25EA11878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4682BDBA-C726-4429-8981-44DE817BA908}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB52BDB4-E166-468B-86BA-56C00564DC21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0624E8E3-C601-4D94-8E00-A6F9292EB2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Teclas not fitted" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
   <si>
     <t>Line #</t>
   </si>
@@ -137,6 +137,18 @@
     <t>Yageo Group</t>
   </si>
   <si>
+    <t>100Mw Thick Film Resistors 100Ppm/ 5% 1.5K 0603 Chip Resistor Surface Mount Rohs</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K5L</t>
+  </si>
+  <si>
+    <t>311-1.5KGRCT-ND</t>
+  </si>
+  <si>
     <t>100mW Thick Film Resistors ±1% ±100ppm/℃ 10kΩ 0603 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
@@ -152,16 +164,16 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 5% +Tol, 5% -Tol, C0G, 0+-30ppm/Celcius TC, 33pF, Surface Mount, 0402 inch</t>
+    <t>0603 27 pF 50 V ±1 % Tolerance NP0 SMT Multilayer Ceramic Capacitor</t>
   </si>
   <si>
     <t>C6, C7</t>
   </si>
   <si>
-    <t>CL05C330JB5NNNC</t>
-  </si>
-  <si>
-    <t>1276-1272-1-ND</t>
+    <t>CC0603FRNPO9BN270</t>
+  </si>
+  <si>
+    <t>311-3892-1-ND</t>
   </si>
   <si>
     <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, +-15% TC, 22nF, Surface Mount, 0603 inch</t>
@@ -224,19 +236,31 @@
     <t>MCC</t>
   </si>
   <si>
-    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0402 1 X 0.5 X 0.39mm T/R UL/cUL</t>
+    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0603 1.6 X 0.8 X 0.54mm T/R UL/cUL</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>P15122CT-ND</t>
+    <t>ERB-RE0R50V</t>
+  </si>
+  <si>
+    <t>P15127CT-ND</t>
   </si>
   <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>ERB-RD0R50X</t>
+    <t>GENERAL PURPOSE CHIP RESISTOR Metal Glaze/thick Film, 0.1W, 0ohm, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R3, R5</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
   </si>
   <si>
     <t>Kailh Switch Sockets For Mx-Compatible Mechanical Keys - 20 Pack |Adafruit 4958</t>
@@ -287,46 +311,19 @@
     <t>587-3258-1-ND</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0402 5.1K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD Automotive T/R</t>
+    <t>TAIYO YUDEN</t>
+  </si>
+  <si>
+    <t>Res Thick Film 0603 5.1K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD T/R</t>
   </si>
   <si>
     <t>R6, R7</t>
   </si>
   <si>
-    <t>RK73H1ETTP5101F</t>
-  </si>
-  <si>
-    <t>2019-RK73H1ETTP5101FCT-ND</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
-    <t>Res Thick Film 0603 1M Ohm 1% 1/10W ±100ppm/°C Molded SMD Punched Carrier T/R</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1004V</t>
-  </si>
-  <si>
-    <t>P1.00MHCT-ND</t>
-  </si>
-  <si>
-    <t>Res Thin Film 0402 1.5K Ohm 0.1% 0.063W ±25ppm/°C Molded SMD Punched Carrier T/R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>ERA-2AEB152X</t>
-  </si>
-  <si>
-    <t>P1.5KDCCT-ND</t>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>311-5.10KHRCT-ND</t>
   </si>
   <si>
     <t>RT9193 Series 300 mA 3.3 V Ultra-Low Noise Ultra-Fast CMOS LDO Regulator-SC-70-5</t>
@@ -341,10 +338,16 @@
     <t>1028-1014-1-ND</t>
   </si>
   <si>
+    <t>Tape &amp; Reel</t>
+  </si>
+  <si>
     <t>Richtek</t>
   </si>
   <si>
-    <t>End of Life</t>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>1028-1014-2-ND</t>
   </si>
   <si>
     <t>USB Connector, 16 Contact(s), Male, Right Angle, Surface Mount Terminal, Locking, Receptacle</t>
@@ -372,21 +375,6 @@
   </si>
   <si>
     <t>497-5235-1-ND</t>
-  </si>
-  <si>
-    <t>Zero Ohm Resistor, Jumper, 0402 [1005 Metric], Thick Film, 63 mW, 1 A, Surface Mount Device</t>
-  </si>
-  <si>
-    <t>R3, R8</t>
-  </si>
-  <si>
-    <t>CR0402AJ/-000GAS</t>
-  </si>
-  <si>
-    <t>CR0402AJ/-000GASCT-ND</t>
-  </si>
-  <si>
-    <t>Bourns</t>
   </si>
   <si>
     <t>Comment</t>
@@ -396,8 +384,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -446,12 +442,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +464,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,11 +782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5609FB-C1DE-4AA0-B2C9-0AC700EABD9D}">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4622AC28-2006-4A30-AB2C-4A943134514F}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -896,7 +889,7 @@
         <v>0.01</v>
       </c>
       <c r="H2" s="1">
-        <v>3746544</v>
+        <v>3562122</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -952,7 +945,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>5838018</v>
+        <v>5646284</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -986,9 +979,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
@@ -996,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -1005,22 +996,22 @@
         <v>35</v>
       </c>
       <c r="G4" s="1">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <v>3238174</v>
+        <v>699035</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
@@ -1035,10 +1026,10 @@
         <v>35</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="R4" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1046,23 +1037,25 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.24</v>
       </c>
       <c r="H5" s="1">
-        <v>3172986</v>
+        <v>2957755</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1074,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>25</v>
@@ -1086,17 +1079,19 @@
         <v>26</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="R5" s="1">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1104,29 +1099,31 @@
         <v>42</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="1">
-        <v>843417</v>
+        <v>50604</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>43</v>
@@ -1141,10 +1138,10 @@
         <v>44</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R6" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1158,18 +1155,20 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="1">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>30037</v>
+        <v>841992</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1178,7 +1177,7 @@
         <v>23</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>47</v>
@@ -1193,37 +1192,37 @@
         <v>48</v>
       </c>
       <c r="Q7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.41</v>
       </c>
-      <c r="R7" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.44</v>
-      </c>
       <c r="H8" s="1">
-        <v>4142</v>
+        <v>38143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1232,10 +1231,10 @@
         <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>25</v>
@@ -1244,13 +1243,13 @@
         <v>26</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="R8" s="1">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1258,38 +1257,40 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="H9" s="1">
-        <v>1059989</v>
+        <v>7442</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>25</v>
@@ -1298,13 +1299,13 @@
         <v>26</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.45</v>
       </c>
       <c r="R9" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1312,29 +1313,31 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>236143</v>
+        <v>989460</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>23</v>
@@ -1343,7 +1346,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>25</v>
@@ -1355,101 +1358,105 @@
         <v>63</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.28999999999999998</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="R10" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1">
-        <v>74.25</v>
+        <v>0.32</v>
       </c>
       <c r="H11" s="1">
-        <v>69</v>
+        <v>103995</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.95</v>
+        <v>0.32</v>
       </c>
       <c r="R11" s="1">
-        <v>74.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G12" s="1">
-        <v>6.08</v>
+        <v>0.02</v>
       </c>
       <c r="H12" s="1">
-        <v>3958</v>
+        <v>3032959</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>25</v>
@@ -1458,13 +1465,13 @@
         <v>26</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.08</v>
+        <v>0.01</v>
       </c>
       <c r="R12" s="1">
-        <v>6.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1472,92 +1479,94 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1">
+        <v>74.25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H13" s="1">
-        <v>926448</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="R13" s="1">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" s="1">
-        <v>0.2</v>
+        <v>6.08</v>
       </c>
       <c r="H14" s="1">
-        <v>142982</v>
+        <v>3673</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>25</v>
@@ -1566,13 +1575,13 @@
         <v>26</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.1</v>
+        <v>6.08</v>
       </c>
       <c r="R14" s="1">
-        <v>0.2</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1580,23 +1589,25 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G15" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H15" s="1">
-        <v>157239</v>
+        <v>862284</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
@@ -1608,10 +1619,10 @@
         <v>23</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>25</v>
@@ -1620,50 +1631,54 @@
         <v>26</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1">
-        <v>0.1</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>105630</v>
+        <v>635309</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
@@ -1672,13 +1687,13 @@
         <v>26</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="R16" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1686,29 +1701,31 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.17732000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="H17" s="1">
-        <v>17489</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>23</v>
@@ -1717,7 +1734,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>101</v>
@@ -1726,13 +1743,13 @@
         <v>26</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.41</v>
+        <v>0.17732000000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>0.41</v>
+        <v>531.96</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -1740,23 +1757,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H18" s="1">
-        <v>27309</v>
+        <v>12995</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
@@ -1768,10 +1787,10 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -1780,13 +1799,13 @@
         <v>26</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R18" s="1">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1794,23 +1813,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1">
         <v>0.36</v>
       </c>
       <c r="H19" s="1">
-        <v>63702</v>
+        <v>144005</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
@@ -1822,10 +1843,10 @@
         <v>23</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>25</v>
@@ -1834,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="1">
         <v>0.36</v>
@@ -1843,62 +1864,11 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>158716</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.2</v>
-      </c>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
+++ b/teclado/Project Outputs for teclado/Bill of Materials/Teclas not fitted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuel-my.sharepoint.com/personal/vitor_hugo_domingues_bogo_live_uel_br/Documents/[1]-Pcompartilhada/[3]-3_ano/PI 3B/altium/Grupo4-TecladoNumerico/teclado/Project Outputs for teclado/Bill of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{FB4DB57C-66EA-456A-9134-FA25EA11878A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4682BDBA-C726-4429-8981-44DE817BA908}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7E661036-07DD-4C5C-BBD7-6E251CFD366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F6B54D-6871-485C-B115-E996AFC67500}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0624E8E3-C601-4D94-8E00-A6F9292EB2B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B2228A7-BC45-482E-8A9A-2D2E83AD272E}"/>
   </bookViews>
   <sheets>
     <sheet name="Teclas not fitted" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="111">
   <si>
     <t>Line #</t>
   </si>
@@ -98,7 +98,7 @@
     <t>10V 1uF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C5, C8</t>
+    <t>C9, C14</t>
   </si>
   <si>
     <t>CL10B105KP8NNNC</t>
@@ -125,7 +125,7 @@
     <t>16V 100nF X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C9, C12, C13</t>
+    <t>C1, C3, C4, C5, C6, C7, C10, C13</t>
   </si>
   <si>
     <t>CC0603KRX7R7BB104</t>
@@ -140,7 +140,7 @@
     <t>100Mw Thick Film Resistors 100Ppm/ 5% 1.5K 0603 Chip Resistor Surface Mount Rohs</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R3</t>
   </si>
   <si>
     <t>RC0603JR-071K5L</t>
@@ -152,7 +152,7 @@
     <t>100mW Thick Film Resistors ±1% ±100ppm/℃ 10kΩ 0603 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
-    <t>R2, R4, R9, R10, R11, R12, R13, R14</t>
+    <t>R5, R6, R7, R8, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>CRCW060310K0FKEA</t>
@@ -167,7 +167,7 @@
     <t>0603 27 pF 50 V ±1 % Tolerance NP0 SMT Multilayer Ceramic Capacitor</t>
   </si>
   <si>
-    <t>C6, C7</t>
+    <t>C2, C8</t>
   </si>
   <si>
     <t>CC0603FRNPO9BN270</t>
@@ -179,7 +179,7 @@
     <t>Ceramic Capacitor, Multilayer, Ceramic, 50V, 10% +Tol, 10% -Tol, X7R, +-15% TC, 22nF, Surface Mount, 0603 inch</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>C11</t>
   </si>
   <si>
     <t>CL10B223KB8WPNC</t>
@@ -188,136 +188,136 @@
     <t>1276-6534-1-ND</t>
   </si>
   <si>
-    <t>Conn Shrouded Header (4 Sides) HDR 20 POS 2.54mm Solder ST Top Entry Thru-Hole</t>
+    <t>Conn Shrouded Header (4 Sides) HDR 20 POS 2.54mm Solder RA Side Entry Thru-HoleC-Grid Tray</t>
   </si>
   <si>
     <t>J1</t>
   </si>
   <si>
-    <t>SBH11-PBPC-D10-ST-BK</t>
-  </si>
-  <si>
-    <t>S9172-ND</t>
+    <t>70247-2051</t>
+  </si>
+  <si>
+    <t>23-0702472051-ND</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>Crystal 8MHz ±30ppm (Tol) ±100ppm (Stability) 20pF FUND 60Ohm 2-Pin SMD T/R</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ECS-80-20-5PXDU-TR</t>
+  </si>
+  <si>
+    <t>XC1526CT-ND</t>
+  </si>
+  <si>
+    <t>ECS International</t>
+  </si>
+  <si>
+    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0603 1.6 X 0.8 X 0.54mm T/R UL/cUL</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>ERB-RE0R50V</t>
+  </si>
+  <si>
+    <t>P15127CT-ND</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CHIP RESISTOR Metal Glaze/thick Film, 0.1W, 0ohm, Surface Mount, 0603</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
+  </si>
+  <si>
+    <t>Kailh Switch Sockets For Mx-Compatible Mechanical Keys - 20 Pack |Adafruit 4958</t>
+  </si>
+  <si>
+    <t>U2, U3, U4, U6, U7, U8, U9, U10, U11, U12, U13, U14, U16, U17, U18</t>
+  </si>
+  <si>
+    <t>4958</t>
+  </si>
+  <si>
+    <t>1528-4958-ND</t>
+  </si>
+  <si>
+    <t>Adafruit Industries</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>MCU 32-bit STM32F1 ARM Cortex M3 RISC 64KB Flash 2.5V/3.3V 48-Pin LQFP Tray</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>497-6063-ND</t>
   </si>
   <si>
     <t>Tray</t>
   </si>
   <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>Crystal 8MHz ±30ppm (Tol) ±100ppm (Stability) 20pF FUND 60Ohm 2-Pin SMD T/R</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ECS-80-20-5PXDU-TR</t>
-  </si>
-  <si>
-    <t>XC1526CT-ND</t>
-  </si>
-  <si>
-    <t>ECS International</t>
-  </si>
-  <si>
-    <t>Diode, Rectifier, Fast, Vr 100V, If 300MA, Pkg SOD-323, Vf 1V, Trr 4NS, Cj 4PF, Tj +150C</t>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors (High dielectric type), 10V, 10 uF, ± 20 %, 0603, X5R, RoHS</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>LMK107BBJ106MALT</t>
+  </si>
+  <si>
+    <t>587-3258-1-ND</t>
+  </si>
+  <si>
+    <t>TAIYO YUDEN</t>
+  </si>
+  <si>
+    <t>Rectifier Diode Schottky 40V 0.03A 2-Pin SOD-323 T/R / DIODE SCHOTTKY 30V 30MA SOD323</t>
   </si>
   <si>
     <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12, D13, D14, D15</t>
   </si>
   <si>
-    <t>1N4148WX-TP</t>
-  </si>
-  <si>
-    <t>1N4148WXTPMSCT-ND</t>
-  </si>
-  <si>
-    <t>MCC</t>
-  </si>
-  <si>
-    <t>Fuse Chip Fast Acting 0.5A 32V SMD Solder Pad 0603 1.6 X 0.8 X 0.54mm T/R UL/cUL</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>ERB-RE0R50V</t>
-  </si>
-  <si>
-    <t>P15127CT-ND</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>GENERAL PURPOSE CHIP RESISTOR Metal Glaze/thick Film, 0.1W, 0ohm, Surface Mount, 0603</t>
-  </si>
-  <si>
-    <t>R3, R5</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>311-0.0GRCT-ND</t>
-  </si>
-  <si>
-    <t>Kailh Switch Sockets For Mx-Compatible Mechanical Keys - 20 Pack |Adafruit 4958</t>
-  </si>
-  <si>
-    <t>U2, U3, U4, U6, U7, U8, U9, U10, U11, U12, U13, U14, U15, U16, U17</t>
-  </si>
-  <si>
-    <t>4958</t>
-  </si>
-  <si>
-    <t>1528-4958-ND</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Adafruit Industries</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>MCU 32-bit STM32F1 ARM Cortex M3 RISC 64KB Flash 2.5V/3.3V 48-Pin LQFP Tray</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>STM32F103C8T6</t>
-  </si>
-  <si>
-    <t>497-6063-ND</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors (High dielectric type), 10V, 10 uF, ± 20 %, 0603, X5R, RoHS</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>LMK107BBJ106MALT</t>
-  </si>
-  <si>
-    <t>587-3258-1-ND</t>
-  </si>
-  <si>
-    <t>TAIYO YUDEN</t>
+    <t>RB751V40T1G</t>
+  </si>
+  <si>
+    <t>RB751V40T1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>onsemi</t>
   </si>
   <si>
     <t>Res Thick Film 0603 5.1K Ohm 1% 0.1W(1/10W) ±100ppm/C Pad SMD T/R</t>
   </si>
   <si>
-    <t>R6, R7</t>
+    <t>R1, R2</t>
   </si>
   <si>
     <t>RC0603FR-075K1L</t>
@@ -338,18 +338,12 @@
     <t>1028-1014-1-ND</t>
   </si>
   <si>
-    <t>Tape &amp; Reel</t>
-  </si>
-  <si>
     <t>Richtek</t>
   </si>
   <si>
     <t>Obsolete</t>
   </si>
   <si>
-    <t>1028-1014-2-ND</t>
-  </si>
-  <si>
     <t>USB Connector, 16 Contact(s), Male, Right Angle, Surface Mount Terminal, Locking, Receptacle</t>
   </si>
   <si>
@@ -368,7 +362,7 @@
     <t>USBLC6 Series 2 Line 6 V Uni / Bi-Directional ESD Protection - SOT-23-6</t>
   </si>
   <si>
-    <t>U18</t>
+    <t>U15</t>
   </si>
   <si>
     <t>USBLC6-2SC6</t>
@@ -782,11 +776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4622AC28-2006-4A30-AB2C-4A943134514F}">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20D8CD3-A462-4354-8762-2214A3E8AF66}">
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -889,7 +883,7 @@
         <v>0.01</v>
       </c>
       <c r="H2" s="1">
-        <v>3562122</v>
+        <v>3540967</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -933,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -942,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>5646284</v>
+        <v>5424503</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -999,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="1">
-        <v>699035</v>
+        <v>687335</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1055,7 +1049,7 @@
         <v>0.24</v>
       </c>
       <c r="H5" s="1">
-        <v>2957755</v>
+        <v>2856834</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1165,7 +1159,7 @@
         <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>841992</v>
+        <v>841892</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1216,10 +1210,10 @@
         <v>52</v>
       </c>
       <c r="G8" s="1">
-        <v>0.41</v>
+        <v>3.89</v>
       </c>
       <c r="H8" s="1">
-        <v>38143</v>
+        <v>2615</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>53</v>
@@ -1246,10 +1240,10 @@
         <v>52</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.41</v>
+        <v>3.89</v>
       </c>
       <c r="R8" s="1">
-        <v>0.41</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1275,7 +1269,7 @@
         <v>0.45</v>
       </c>
       <c r="H9" s="1">
-        <v>7442</v>
+        <v>7422</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -1309,9 +1303,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
@@ -1319,7 +1311,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>62</v>
@@ -1328,16 +1320,16 @@
         <v>63</v>
       </c>
       <c r="G10" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.31</v>
       </c>
       <c r="H10" s="1">
-        <v>989460</v>
+        <v>2919</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>23</v>
@@ -1358,10 +1350,10 @@
         <v>63</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.31</v>
       </c>
       <c r="R10" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1382,10 +1374,10 @@
         <v>68</v>
       </c>
       <c r="G11" s="1">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="H11" s="1">
-        <v>103995</v>
+        <v>2939930</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -1397,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>67</v>
@@ -1412,10 +1404,10 @@
         <v>68</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="R11" s="1">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1423,115 +1415,115 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G12" s="1">
-        <v>0.02</v>
+        <v>74.25</v>
       </c>
       <c r="H12" s="1">
-        <v>3032959</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.01</v>
+        <v>4.95</v>
       </c>
       <c r="R12" s="1">
-        <v>0.1</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1">
-        <v>74.25</v>
+        <v>6.08</v>
       </c>
       <c r="H13" s="1">
-        <v>52</v>
+        <v>3373</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.95</v>
+        <v>6.08</v>
       </c>
       <c r="R13" s="1">
-        <v>74.25</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1548,13 +1540,13 @@
         <v>84</v>
       </c>
       <c r="G14" s="1">
-        <v>6.08</v>
+        <v>0.08</v>
       </c>
       <c r="H14" s="1">
-        <v>3673</v>
+        <v>861176</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1578,10 +1570,10 @@
         <v>84</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.08</v>
+        <v>0.08</v>
       </c>
       <c r="R14" s="1">
-        <v>6.08</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1595,7 +1587,7 @@
         <v>87</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>88</v>
@@ -1604,16 +1596,16 @@
         <v>89</v>
       </c>
       <c r="G15" s="1">
-        <v>0.08</v>
+        <v>1.2</v>
       </c>
       <c r="H15" s="1">
-        <v>862284</v>
+        <v>326728</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>23</v>
@@ -1637,7 +1629,7 @@
         <v>0.08</v>
       </c>
       <c r="R15" s="1">
-        <v>0.08</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1663,7 +1655,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>635309</v>
+        <v>618540</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
@@ -1715,67 +1707,49 @@
       <c r="F17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.17732000000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>15000</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0.17732000000000001</v>
-      </c>
-      <c r="R17" s="1">
-        <v>531.96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G18" s="1">
         <v>1.23</v>
       </c>
       <c r="H18" s="1">
-        <v>12995</v>
+        <v>38043</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
@@ -1787,10 +1761,10 @@
         <v>23</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -1799,7 +1773,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="1">
         <v>1.23</v>
@@ -1813,25 +1787,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G19" s="1">
         <v>0.36</v>
       </c>
       <c r="H19" s="1">
-        <v>144005</v>
+        <v>126022</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
@@ -1843,10 +1817,10 @@
         <v>23</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>25</v>
@@ -1855,7 +1829,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="1">
         <v>0.36</v>
@@ -1864,8 +1838,8 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E21" s="5"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
